--- a/data/pca/factorExposure/factorExposure_2012-06-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-18.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01708712110357264</v>
+        <v>0.02174488286747645</v>
       </c>
       <c r="C2">
-        <v>0.02620268151035179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02181421122888844</v>
+      </c>
+      <c r="D2">
+        <v>-0.0006349937882930532</v>
+      </c>
+      <c r="E2">
+        <v>-0.0226026765445425</v>
+      </c>
+      <c r="F2">
+        <v>0.007967657108423228</v>
+      </c>
+      <c r="G2">
+        <v>0.01013798756412893</v>
+      </c>
+      <c r="H2">
+        <v>0.05355892969877629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06738129983739495</v>
+        <v>0.07722430618884489</v>
       </c>
       <c r="C4">
-        <v>0.0655301263570905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04166743674906168</v>
+      </c>
+      <c r="D4">
+        <v>0.06971038944313883</v>
+      </c>
+      <c r="E4">
+        <v>-0.0004286784529210208</v>
+      </c>
+      <c r="F4">
+        <v>0.03194845114935789</v>
+      </c>
+      <c r="G4">
+        <v>-0.01058050726461038</v>
+      </c>
+      <c r="H4">
+        <v>-0.02002939675129047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09541547488148248</v>
+        <v>0.1160127403427132</v>
       </c>
       <c r="C6">
-        <v>0.07261598601775508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04573392818369246</v>
+      </c>
+      <c r="D6">
+        <v>0.01250884054440089</v>
+      </c>
+      <c r="E6">
+        <v>0.001176968048461537</v>
+      </c>
+      <c r="F6">
+        <v>0.05095829027801674</v>
+      </c>
+      <c r="G6">
+        <v>0.006531564724271912</v>
+      </c>
+      <c r="H6">
+        <v>0.05338781965153409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04455768995050383</v>
+        <v>0.05533808143218841</v>
       </c>
       <c r="C7">
-        <v>0.03541146913577865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02455261695313095</v>
+      </c>
+      <c r="D7">
+        <v>0.03624633474877647</v>
+      </c>
+      <c r="E7">
+        <v>-0.02098763272607032</v>
+      </c>
+      <c r="F7">
+        <v>0.03110809633656624</v>
+      </c>
+      <c r="G7">
+        <v>-0.04508282502816782</v>
+      </c>
+      <c r="H7">
+        <v>-0.02299699644150362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03120615151601955</v>
+        <v>0.03486829892527653</v>
       </c>
       <c r="C8">
-        <v>0.03058027529170561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01855170315415052</v>
+      </c>
+      <c r="D8">
+        <v>0.03686095344819282</v>
+      </c>
+      <c r="E8">
+        <v>-0.006452635353730638</v>
+      </c>
+      <c r="F8">
+        <v>0.0527213870318141</v>
+      </c>
+      <c r="G8">
+        <v>0.02544226685914683</v>
+      </c>
+      <c r="H8">
+        <v>0.0355636315491234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06199259749466123</v>
+        <v>0.07219320545609269</v>
       </c>
       <c r="C9">
-        <v>0.05009891982568465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02939316666758613</v>
+      </c>
+      <c r="D9">
+        <v>0.06795557078098191</v>
+      </c>
+      <c r="E9">
+        <v>-0.01718819896414433</v>
+      </c>
+      <c r="F9">
+        <v>0.03941968634885615</v>
+      </c>
+      <c r="G9">
+        <v>-0.004309587616103162</v>
+      </c>
+      <c r="H9">
+        <v>-0.04138893881129265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02635414160819854</v>
+        <v>0.03955299881422025</v>
       </c>
       <c r="C10">
-        <v>0.03831251981068074</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04156639399910521</v>
+      </c>
+      <c r="D10">
+        <v>-0.1823395646321516</v>
+      </c>
+      <c r="E10">
+        <v>-0.04738323586270835</v>
+      </c>
+      <c r="F10">
+        <v>0.03264607309511596</v>
+      </c>
+      <c r="G10">
+        <v>-0.04156889705307874</v>
+      </c>
+      <c r="H10">
+        <v>0.02544889281064199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.065817023170483</v>
+        <v>0.0744519146128441</v>
       </c>
       <c r="C11">
-        <v>0.05388689563612998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02967793209408461</v>
+      </c>
+      <c r="D11">
+        <v>0.06781244273450798</v>
+      </c>
+      <c r="E11">
+        <v>0.01176864227441493</v>
+      </c>
+      <c r="F11">
+        <v>0.03513556769609378</v>
+      </c>
+      <c r="G11">
+        <v>-0.01604271902688461</v>
+      </c>
+      <c r="H11">
+        <v>-0.08565688745440464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05094181992513656</v>
+        <v>0.06122689150941698</v>
       </c>
       <c r="C12">
-        <v>0.05339735604120674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03499254961147349</v>
+      </c>
+      <c r="D12">
+        <v>0.05115891539558738</v>
+      </c>
+      <c r="E12">
+        <v>-0.00949406368430966</v>
+      </c>
+      <c r="F12">
+        <v>0.02939299671971305</v>
+      </c>
+      <c r="G12">
+        <v>-0.01775894873989109</v>
+      </c>
+      <c r="H12">
+        <v>-0.04848313386695904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05656184369557823</v>
+        <v>0.06291080126887874</v>
       </c>
       <c r="C13">
-        <v>0.05488682849490392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03168073580442169</v>
+      </c>
+      <c r="D13">
+        <v>0.0493216056585886</v>
+      </c>
+      <c r="E13">
+        <v>-0.004696433643005389</v>
+      </c>
+      <c r="F13">
+        <v>0.01868847579008329</v>
+      </c>
+      <c r="G13">
+        <v>-0.00216625804608999</v>
+      </c>
+      <c r="H13">
+        <v>-0.05529482359530266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03112307555499021</v>
+        <v>0.03746060551044662</v>
       </c>
       <c r="C14">
-        <v>0.02863168431448267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01964004125394331</v>
+      </c>
+      <c r="D14">
+        <v>0.009386418432232466</v>
+      </c>
+      <c r="E14">
+        <v>-0.008922214642676098</v>
+      </c>
+      <c r="F14">
+        <v>0.01306529588961798</v>
+      </c>
+      <c r="G14">
+        <v>0.004265594698382097</v>
+      </c>
+      <c r="H14">
+        <v>-0.05712864507009335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03850736907794007</v>
+        <v>0.04038984840370765</v>
       </c>
       <c r="C15">
-        <v>0.01449826101919967</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.00289104471957309</v>
+      </c>
+      <c r="D15">
+        <v>0.01616248729560201</v>
+      </c>
+      <c r="E15">
+        <v>-0.03734843904706479</v>
+      </c>
+      <c r="F15">
+        <v>0.00124986404427467</v>
+      </c>
+      <c r="G15">
+        <v>0.02181586700966831</v>
+      </c>
+      <c r="H15">
+        <v>-0.0544178129723727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.055428585788832</v>
+        <v>0.06233134420923291</v>
       </c>
       <c r="C16">
-        <v>0.04784653918695152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02752068419841752</v>
+      </c>
+      <c r="D16">
+        <v>0.06045125597883631</v>
+      </c>
+      <c r="E16">
+        <v>0.001594671472047891</v>
+      </c>
+      <c r="F16">
+        <v>0.03114748470860025</v>
+      </c>
+      <c r="G16">
+        <v>-0.005732662427467383</v>
+      </c>
+      <c r="H16">
+        <v>-0.05294489664432717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0603455725758654</v>
+        <v>0.06188492327162181</v>
       </c>
       <c r="C20">
-        <v>0.04060587417422662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01755301518130916</v>
+      </c>
+      <c r="D20">
+        <v>0.04905713417047371</v>
+      </c>
+      <c r="E20">
+        <v>-0.0159616123171734</v>
+      </c>
+      <c r="F20">
+        <v>0.02710421890727026</v>
+      </c>
+      <c r="G20">
+        <v>-0.019285038847799</v>
+      </c>
+      <c r="H20">
+        <v>-0.04437479509273417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02583060662274899</v>
+        <v>0.02348978837420615</v>
       </c>
       <c r="C21">
-        <v>0.002764331795312919</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008322982708571538</v>
+      </c>
+      <c r="D21">
+        <v>0.02856798062167277</v>
+      </c>
+      <c r="E21">
+        <v>-0.09029728666595568</v>
+      </c>
+      <c r="F21">
+        <v>-0.002355273512582851</v>
+      </c>
+      <c r="G21">
+        <v>0.0117449034620368</v>
+      </c>
+      <c r="H21">
+        <v>0.02214744330405769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06594746660997777</v>
+        <v>0.06311912912330377</v>
       </c>
       <c r="C22">
-        <v>0.07740171084080076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04473885499707199</v>
+      </c>
+      <c r="D22">
+        <v>0.1041387839338745</v>
+      </c>
+      <c r="E22">
+        <v>-0.6128459284249407</v>
+      </c>
+      <c r="F22">
+        <v>-0.130582421607801</v>
+      </c>
+      <c r="G22">
+        <v>-0.0311754169040986</v>
+      </c>
+      <c r="H22">
+        <v>0.1292210948419168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06659108070600279</v>
+        <v>0.06377658834814466</v>
       </c>
       <c r="C23">
-        <v>0.07703459027551773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04423524987726301</v>
+      </c>
+      <c r="D23">
+        <v>0.1050314231841432</v>
+      </c>
+      <c r="E23">
+        <v>-0.612118153848472</v>
+      </c>
+      <c r="F23">
+        <v>-0.1301678633076827</v>
+      </c>
+      <c r="G23">
+        <v>-0.02922261137180242</v>
+      </c>
+      <c r="H23">
+        <v>0.1251528311532855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06284984464394687</v>
+        <v>0.07400141450902722</v>
       </c>
       <c r="C24">
-        <v>0.05584757153771285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03312826344151321</v>
+      </c>
+      <c r="D24">
+        <v>0.06526659242428895</v>
+      </c>
+      <c r="E24">
+        <v>-0.005848749380414519</v>
+      </c>
+      <c r="F24">
+        <v>0.04335118952300952</v>
+      </c>
+      <c r="G24">
+        <v>-0.006569721487923843</v>
+      </c>
+      <c r="H24">
+        <v>-0.05780168185255002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06230319572261385</v>
+        <v>0.0721008018147465</v>
       </c>
       <c r="C25">
-        <v>0.06048145548097342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03767641787644006</v>
+      </c>
+      <c r="D25">
+        <v>0.06362177840934943</v>
+      </c>
+      <c r="E25">
+        <v>-0.008492388746908688</v>
+      </c>
+      <c r="F25">
+        <v>0.04024791340020892</v>
+      </c>
+      <c r="G25">
+        <v>0.00353504711171448</v>
+      </c>
+      <c r="H25">
+        <v>-0.06315619474495865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03722079894521375</v>
+        <v>0.04050357744651654</v>
       </c>
       <c r="C26">
-        <v>0.01608519858013139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005764609677091775</v>
+      </c>
+      <c r="D26">
+        <v>0.02183156201251905</v>
+      </c>
+      <c r="E26">
+        <v>-0.03659494213295115</v>
+      </c>
+      <c r="F26">
+        <v>0.01945922200268098</v>
+      </c>
+      <c r="G26">
+        <v>-0.01652384003881337</v>
+      </c>
+      <c r="H26">
+        <v>-0.05571752681094163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04694995758497682</v>
+        <v>0.0734308576960741</v>
       </c>
       <c r="C28">
-        <v>0.07353851908781273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07873817799381413</v>
+      </c>
+      <c r="D28">
+        <v>-0.3229452945011433</v>
+      </c>
+      <c r="E28">
+        <v>-0.03828820092824992</v>
+      </c>
+      <c r="F28">
+        <v>0.04674782784075038</v>
+      </c>
+      <c r="G28">
+        <v>0.0258907796398866</v>
+      </c>
+      <c r="H28">
+        <v>-0.0003150959766318402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03436265236283834</v>
+        <v>0.04320375023177364</v>
       </c>
       <c r="C29">
-        <v>0.03191695916284825</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02398572233311098</v>
+      </c>
+      <c r="D29">
+        <v>0.01028163447873397</v>
+      </c>
+      <c r="E29">
+        <v>-0.03536186587384185</v>
+      </c>
+      <c r="F29">
+        <v>0.01087331248511098</v>
+      </c>
+      <c r="G29">
+        <v>-0.0149911290816834</v>
+      </c>
+      <c r="H29">
+        <v>-0.08143962685971555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1133159819302166</v>
+        <v>0.1311514748882508</v>
       </c>
       <c r="C30">
-        <v>0.1057713677021701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.0657552707667127</v>
+      </c>
+      <c r="D30">
+        <v>0.09580613577617829</v>
+      </c>
+      <c r="E30">
+        <v>-0.04007976233991586</v>
+      </c>
+      <c r="F30">
+        <v>0.02949735436682585</v>
+      </c>
+      <c r="G30">
+        <v>0.01184978151805649</v>
+      </c>
+      <c r="H30">
+        <v>0.03563926355718101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03692849758859405</v>
+        <v>0.04285930933512443</v>
       </c>
       <c r="C31">
-        <v>0.02498513780154511</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01393708879004077</v>
+      </c>
+      <c r="D31">
+        <v>0.02869902857510331</v>
+      </c>
+      <c r="E31">
+        <v>-0.01952260287300671</v>
+      </c>
+      <c r="F31">
+        <v>0.01127795671423174</v>
+      </c>
+      <c r="G31">
+        <v>-0.02248592505579536</v>
+      </c>
+      <c r="H31">
+        <v>-0.06751160101220194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03213200721591585</v>
+        <v>0.03262474355676832</v>
       </c>
       <c r="C32">
-        <v>0.02492306046683484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01405575496211965</v>
+      </c>
+      <c r="D32">
+        <v>0.01374804332561344</v>
+      </c>
+      <c r="E32">
+        <v>-0.06705793025683712</v>
+      </c>
+      <c r="F32">
+        <v>-0.002436971074845625</v>
+      </c>
+      <c r="G32">
+        <v>0.02758256470539027</v>
+      </c>
+      <c r="H32">
+        <v>-0.02582454728633458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0725237701876903</v>
+        <v>0.08779240086871146</v>
       </c>
       <c r="C33">
-        <v>0.05715467368278018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03496784213600976</v>
+      </c>
+      <c r="D33">
+        <v>0.06205449911541412</v>
+      </c>
+      <c r="E33">
+        <v>-0.01312567130344048</v>
+      </c>
+      <c r="F33">
+        <v>0.009308056286651479</v>
+      </c>
+      <c r="G33">
+        <v>-0.0137499141552252</v>
+      </c>
+      <c r="H33">
+        <v>-0.05621558171457487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0495174499333654</v>
+        <v>0.05709138856798361</v>
       </c>
       <c r="C34">
-        <v>0.03599279404182354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01832675602778984</v>
+      </c>
+      <c r="D34">
+        <v>0.06078324546713617</v>
+      </c>
+      <c r="E34">
+        <v>-0.002224132790938715</v>
+      </c>
+      <c r="F34">
+        <v>0.02566566267055851</v>
+      </c>
+      <c r="G34">
+        <v>-0.001327368634234775</v>
+      </c>
+      <c r="H34">
+        <v>-0.03994297270442092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03583324574307964</v>
+        <v>0.04024653412151781</v>
       </c>
       <c r="C35">
-        <v>0.01388470007665143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005054167910000377</v>
+      </c>
+      <c r="D35">
+        <v>0.01170264317055298</v>
+      </c>
+      <c r="E35">
+        <v>-0.02502735827976681</v>
+      </c>
+      <c r="F35">
+        <v>-0.002810223204374293</v>
+      </c>
+      <c r="G35">
+        <v>-0.01391806200085986</v>
+      </c>
+      <c r="H35">
+        <v>-0.04009703615556608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01715759735243489</v>
+        <v>0.02325340950878856</v>
       </c>
       <c r="C36">
-        <v>0.01787049044583609</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01200456779383252</v>
+      </c>
+      <c r="D36">
+        <v>0.02003679890381372</v>
+      </c>
+      <c r="E36">
+        <v>-0.03316796899346778</v>
+      </c>
+      <c r="F36">
+        <v>0.01958774588341777</v>
+      </c>
+      <c r="G36">
+        <v>-0.01329195393339179</v>
+      </c>
+      <c r="H36">
+        <v>-0.05439931032154848</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03850072034808216</v>
+        <v>0.04100621439152233</v>
       </c>
       <c r="C38">
-        <v>0.01125154107290839</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001952301351740768</v>
+      </c>
+      <c r="D38">
+        <v>0.01290685368427321</v>
+      </c>
+      <c r="E38">
+        <v>-0.06011798807114217</v>
+      </c>
+      <c r="F38">
+        <v>-0.02132284625309039</v>
+      </c>
+      <c r="G38">
+        <v>0.01714951793302327</v>
+      </c>
+      <c r="H38">
+        <v>-0.02159398710949238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08501844949689973</v>
+        <v>0.1005022304148017</v>
       </c>
       <c r="C39">
-        <v>0.08873260647451295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05677002244395208</v>
+      </c>
+      <c r="D39">
+        <v>0.08595163201577606</v>
+      </c>
+      <c r="E39">
+        <v>0.01364253910589422</v>
+      </c>
+      <c r="F39">
+        <v>0.02249730327817703</v>
+      </c>
+      <c r="G39">
+        <v>0.0243388430744415</v>
+      </c>
+      <c r="H39">
+        <v>-0.04861029435246422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06401670879224533</v>
+        <v>0.07238078228573178</v>
       </c>
       <c r="C40">
-        <v>0.05767882954789062</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03529890123236199</v>
+      </c>
+      <c r="D40">
+        <v>0.01227765024833289</v>
+      </c>
+      <c r="E40">
+        <v>-0.02748877721463392</v>
+      </c>
+      <c r="F40">
+        <v>-0.04421198105058552</v>
+      </c>
+      <c r="G40">
+        <v>0.05705058534976493</v>
+      </c>
+      <c r="H40">
+        <v>0.0884435285280735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03830946339249072</v>
+        <v>0.0429560593970519</v>
       </c>
       <c r="C41">
-        <v>0.01842034873723334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.007612110149932758</v>
+      </c>
+      <c r="D41">
+        <v>0.04076714695810452</v>
+      </c>
+      <c r="E41">
+        <v>-0.006888187156647711</v>
+      </c>
+      <c r="F41">
+        <v>-0.006490118885043646</v>
+      </c>
+      <c r="G41">
+        <v>0.01006185100514212</v>
+      </c>
+      <c r="H41">
+        <v>-0.03680616515718271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04134164465510324</v>
+        <v>0.05082229114043178</v>
       </c>
       <c r="C43">
-        <v>0.03764355701809276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02271636636230629</v>
+      </c>
+      <c r="D43">
+        <v>0.02937264006306538</v>
+      </c>
+      <c r="E43">
+        <v>-0.01653437968529164</v>
+      </c>
+      <c r="F43">
+        <v>0.01507611856842017</v>
+      </c>
+      <c r="G43">
+        <v>-0.01105793432599564</v>
+      </c>
+      <c r="H43">
+        <v>-0.04715851688958041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0876157617933602</v>
+        <v>0.09209878195724815</v>
       </c>
       <c r="C44">
-        <v>0.09906301725609491</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06239762064150067</v>
+      </c>
+      <c r="D44">
+        <v>0.05653304403525269</v>
+      </c>
+      <c r="E44">
+        <v>-0.1036024156418186</v>
+      </c>
+      <c r="F44">
+        <v>0.07625425158818952</v>
+      </c>
+      <c r="G44">
+        <v>0.01941407879918138</v>
+      </c>
+      <c r="H44">
+        <v>0.01984443585948093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02668779137239424</v>
+        <v>0.02813997889658613</v>
       </c>
       <c r="C46">
-        <v>0.01792119632610047</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.008468105893307354</v>
+      </c>
+      <c r="D46">
+        <v>0.03395919714834868</v>
+      </c>
+      <c r="E46">
+        <v>-0.01620844708416993</v>
+      </c>
+      <c r="F46">
+        <v>0.01745633580445584</v>
+      </c>
+      <c r="G46">
+        <v>0.00468381342594151</v>
+      </c>
+      <c r="H46">
+        <v>-0.04137646326649173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02702511260960428</v>
+        <v>0.0301789812811406</v>
       </c>
       <c r="C47">
-        <v>0.02128801773729225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01278142977487591</v>
+      </c>
+      <c r="D47">
+        <v>0.01631045811607374</v>
+      </c>
+      <c r="E47">
+        <v>-0.04697384624190439</v>
+      </c>
+      <c r="F47">
+        <v>0.01416945041777787</v>
+      </c>
+      <c r="G47">
+        <v>-0.02580548383504262</v>
+      </c>
+      <c r="H47">
+        <v>-0.04539886042114561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02665346630200312</v>
+        <v>0.03108358934773426</v>
       </c>
       <c r="C48">
-        <v>0.0216304780973531</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01248620847937945</v>
+      </c>
+      <c r="D48">
+        <v>0.03153477071176654</v>
+      </c>
+      <c r="E48">
+        <v>-0.04239418679827826</v>
+      </c>
+      <c r="F48">
+        <v>0.01638792374472816</v>
+      </c>
+      <c r="G48">
+        <v>-0.002071282794632815</v>
+      </c>
+      <c r="H48">
+        <v>-0.04910136209054321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1485222253037329</v>
+        <v>0.1754452057848575</v>
       </c>
       <c r="C49">
-        <v>0.09670832879925148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05380096420658999</v>
+      </c>
+      <c r="D49">
+        <v>0.0130809458208254</v>
+      </c>
+      <c r="E49">
+        <v>0.1339029379956861</v>
+      </c>
+      <c r="F49">
+        <v>0.01765864341509823</v>
+      </c>
+      <c r="G49">
+        <v>-0.0639114666073459</v>
+      </c>
+      <c r="H49">
+        <v>0.2667181870302406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03203195695489799</v>
+        <v>0.04111639937312968</v>
       </c>
       <c r="C50">
-        <v>0.02845722675883838</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02088291433193469</v>
+      </c>
+      <c r="D50">
+        <v>0.03670237311732596</v>
+      </c>
+      <c r="E50">
+        <v>-0.04137641363983107</v>
+      </c>
+      <c r="F50">
+        <v>0.02656418341674494</v>
+      </c>
+      <c r="G50">
+        <v>-0.02221729587082909</v>
+      </c>
+      <c r="H50">
+        <v>-0.07296123050202361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02396883401601175</v>
+        <v>0.02651998472655174</v>
       </c>
       <c r="C51">
-        <v>0.01623643171353404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.00909633539464556</v>
+      </c>
+      <c r="D51">
+        <v>0.02651914306157307</v>
+      </c>
+      <c r="E51">
+        <v>-0.01419327656614286</v>
+      </c>
+      <c r="F51">
+        <v>0.008326913549155934</v>
+      </c>
+      <c r="G51">
+        <v>0.004925275865007543</v>
+      </c>
+      <c r="H51">
+        <v>0.001531362566751816</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.135425900874673</v>
+        <v>0.1575763186518087</v>
       </c>
       <c r="C53">
-        <v>0.1040029696436394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06773821137559606</v>
+      </c>
+      <c r="D53">
+        <v>0.02373249022344916</v>
+      </c>
+      <c r="E53">
+        <v>0.04112131266804548</v>
+      </c>
+      <c r="F53">
+        <v>0.01981702468857637</v>
+      </c>
+      <c r="G53">
+        <v>0.005606928216326682</v>
+      </c>
+      <c r="H53">
+        <v>-0.153013698432922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05059058949581365</v>
+        <v>0.05437332863974008</v>
       </c>
       <c r="C54">
-        <v>0.02975604985720187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01209688167211864</v>
+      </c>
+      <c r="D54">
+        <v>0.03496947136043838</v>
+      </c>
+      <c r="E54">
+        <v>-0.04154920701501374</v>
+      </c>
+      <c r="F54">
+        <v>0.01474355241136703</v>
+      </c>
+      <c r="G54">
+        <v>0.002133330357848901</v>
+      </c>
+      <c r="H54">
+        <v>-0.06248111785155974</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08957050337630702</v>
+        <v>0.09856473666455152</v>
       </c>
       <c r="C55">
-        <v>0.0687369150777959</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04293027475502315</v>
+      </c>
+      <c r="D55">
+        <v>0.03332273045155372</v>
+      </c>
+      <c r="E55">
+        <v>-0.005079306499329626</v>
+      </c>
+      <c r="F55">
+        <v>0.02084456479788936</v>
+      </c>
+      <c r="G55">
+        <v>0.01104550220127028</v>
+      </c>
+      <c r="H55">
+        <v>-0.1431133713059721</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1329179335916776</v>
+        <v>0.1569654327178172</v>
       </c>
       <c r="C56">
-        <v>0.1145252946750718</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07724614990184596</v>
+      </c>
+      <c r="D56">
+        <v>0.02085276474274499</v>
+      </c>
+      <c r="E56">
+        <v>0.04063206011050743</v>
+      </c>
+      <c r="F56">
+        <v>0.04963003935046178</v>
+      </c>
+      <c r="G56">
+        <v>-0.01394833017191098</v>
+      </c>
+      <c r="H56">
+        <v>-0.149981445889676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1112800284209096</v>
+        <v>0.1019246921981841</v>
       </c>
       <c r="C58">
-        <v>0.03641784799438218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.003715508176512938</v>
+      </c>
+      <c r="D58">
+        <v>0.05423234588731758</v>
+      </c>
+      <c r="E58">
+        <v>-0.1890658524532071</v>
+      </c>
+      <c r="F58">
+        <v>0.04053544937420779</v>
+      </c>
+      <c r="G58">
+        <v>-0.05862075176879008</v>
+      </c>
+      <c r="H58">
+        <v>0.1134650390332465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1002811669225215</v>
+        <v>0.1453863500253182</v>
       </c>
       <c r="C59">
-        <v>0.09006592938122919</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.09207392385434085</v>
+      </c>
+      <c r="D59">
+        <v>-0.351340939988246</v>
+      </c>
+      <c r="E59">
+        <v>-0.04768713641095385</v>
+      </c>
+      <c r="F59">
+        <v>-0.02416791442845827</v>
+      </c>
+      <c r="G59">
+        <v>-0.02860321807129562</v>
+      </c>
+      <c r="H59">
+        <v>-0.01752425914225362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1791896834038929</v>
+        <v>0.2160787932849057</v>
       </c>
       <c r="C60">
-        <v>0.1256201606657518</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08201710296207682</v>
+      </c>
+      <c r="D60">
+        <v>0.01694575265696795</v>
+      </c>
+      <c r="E60">
+        <v>0.0708715760316356</v>
+      </c>
+      <c r="F60">
+        <v>0.03893957827336555</v>
+      </c>
+      <c r="G60">
+        <v>0.02029887528520017</v>
+      </c>
+      <c r="H60">
+        <v>0.1770774304070169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07306996002532101</v>
+        <v>0.08533092107243483</v>
       </c>
       <c r="C61">
-        <v>0.06558221685562701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.041176605885454</v>
+      </c>
+      <c r="D61">
+        <v>0.06512636021597651</v>
+      </c>
+      <c r="E61">
+        <v>0.01793345021894343</v>
+      </c>
+      <c r="F61">
+        <v>0.0095297276029775</v>
+      </c>
+      <c r="G61">
+        <v>-0.01713321885302905</v>
+      </c>
+      <c r="H61">
+        <v>-0.06719975374865382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1122619767167312</v>
+        <v>0.1373191511438174</v>
       </c>
       <c r="C62">
-        <v>0.08854276782496361</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.0596242180378832</v>
+      </c>
+      <c r="D62">
+        <v>0.02594584307199191</v>
+      </c>
+      <c r="E62">
+        <v>0.05548765727885805</v>
+      </c>
+      <c r="F62">
+        <v>0.02272834538285762</v>
+      </c>
+      <c r="G62">
+        <v>0.03128691310910276</v>
+      </c>
+      <c r="H62">
+        <v>-0.1484267685102921</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04863438857822847</v>
+        <v>0.05161632167345802</v>
       </c>
       <c r="C63">
-        <v>0.03311040276719884</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01751929751731463</v>
+      </c>
+      <c r="D63">
+        <v>0.03240967437574445</v>
+      </c>
+      <c r="E63">
+        <v>-0.0477639873296118</v>
+      </c>
+      <c r="F63">
+        <v>0.0120508762023808</v>
+      </c>
+      <c r="G63">
+        <v>0.02628619604403758</v>
+      </c>
+      <c r="H63">
+        <v>-0.07842308374712817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1049013495694371</v>
+        <v>0.1118867131694313</v>
       </c>
       <c r="C64">
-        <v>0.05098510438883123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01866027489261211</v>
+      </c>
+      <c r="D64">
+        <v>0.04491640535958883</v>
+      </c>
+      <c r="E64">
+        <v>-0.03120774497118207</v>
+      </c>
+      <c r="F64">
+        <v>0.0575601139868589</v>
+      </c>
+      <c r="G64">
+        <v>0.0175841934762049</v>
+      </c>
+      <c r="H64">
+        <v>-0.07524036642310823</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.107049039291282</v>
+        <v>0.1237706310337922</v>
       </c>
       <c r="C65">
-        <v>0.07095804974428931</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04269652340435307</v>
+      </c>
+      <c r="D65">
+        <v>0.009849504683849424</v>
+      </c>
+      <c r="E65">
+        <v>-0.004654260877015997</v>
+      </c>
+      <c r="F65">
+        <v>0.06209496549328976</v>
+      </c>
+      <c r="G65">
+        <v>0.02404023860104225</v>
+      </c>
+      <c r="H65">
+        <v>0.06380077478509973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1313295682645896</v>
+        <v>0.1517267497403691</v>
       </c>
       <c r="C66">
-        <v>0.09982150095851156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05664376424224523</v>
+      </c>
+      <c r="D66">
+        <v>0.118743086085385</v>
+      </c>
+      <c r="E66">
+        <v>0.05571723007343191</v>
+      </c>
+      <c r="F66">
+        <v>0.04547137760083795</v>
+      </c>
+      <c r="G66">
+        <v>0.02126668548361788</v>
+      </c>
+      <c r="H66">
+        <v>-0.1077688061530033</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06929351497473607</v>
+        <v>0.07532672612507316</v>
       </c>
       <c r="C67">
-        <v>0.02535161394077681</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.008268084160702559</v>
+      </c>
+      <c r="D67">
+        <v>0.02506817199975416</v>
+      </c>
+      <c r="E67">
+        <v>-0.02666764120890161</v>
+      </c>
+      <c r="F67">
+        <v>-0.001159659188728372</v>
+      </c>
+      <c r="G67">
+        <v>-0.004493159554747263</v>
+      </c>
+      <c r="H67">
+        <v>-0.01439817288318499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05023556497756086</v>
+        <v>0.06718968808633592</v>
       </c>
       <c r="C68">
-        <v>0.04917491017394431</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.0519453654099862</v>
+      </c>
+      <c r="D68">
+        <v>-0.2662626451266053</v>
+      </c>
+      <c r="E68">
+        <v>-0.04768272141719828</v>
+      </c>
+      <c r="F68">
+        <v>0.008015582529464887</v>
+      </c>
+      <c r="G68">
+        <v>-0.007133589846885725</v>
+      </c>
+      <c r="H68">
+        <v>-0.01883658456401933</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04918512604898961</v>
+        <v>0.05075765382890141</v>
       </c>
       <c r="C69">
-        <v>0.02642810044812577</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.009536558605955835</v>
+      </c>
+      <c r="D69">
+        <v>0.03484006285159198</v>
+      </c>
+      <c r="E69">
+        <v>-0.0178614063499709</v>
+      </c>
+      <c r="F69">
+        <v>0.001053944608518601</v>
+      </c>
+      <c r="G69">
+        <v>-0.004452381574339759</v>
+      </c>
+      <c r="H69">
+        <v>-0.07234944373144911</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004819665640402878</v>
+        <v>0.01565385955220301</v>
       </c>
       <c r="C70">
-        <v>-0.002487790375860667</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0003292954691482986</v>
+      </c>
+      <c r="D70">
+        <v>-0.006930704915231809</v>
+      </c>
+      <c r="E70">
+        <v>0.0229592148766046</v>
+      </c>
+      <c r="F70">
+        <v>0.01344753054975768</v>
+      </c>
+      <c r="G70">
+        <v>-0.01865794390407452</v>
+      </c>
+      <c r="H70">
+        <v>0.05417972628189886</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05324863246907741</v>
+        <v>0.07086222738490527</v>
       </c>
       <c r="C71">
-        <v>0.04824114783887848</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05136670329171884</v>
+      </c>
+      <c r="D71">
+        <v>-0.299321161345919</v>
+      </c>
+      <c r="E71">
+        <v>-0.04488190253675118</v>
+      </c>
+      <c r="F71">
+        <v>0.03130490066145879</v>
+      </c>
+      <c r="G71">
+        <v>-0.004736900776615921</v>
+      </c>
+      <c r="H71">
+        <v>-0.0148027878168868</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1292339608931849</v>
+        <v>0.154688512463077</v>
       </c>
       <c r="C72">
-        <v>0.080656707097854</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04831138401228106</v>
+      </c>
+      <c r="D72">
+        <v>0.009767392168947854</v>
+      </c>
+      <c r="E72">
+        <v>0.08964801108936708</v>
+      </c>
+      <c r="F72">
+        <v>-0.1538767219350102</v>
+      </c>
+      <c r="G72">
+        <v>0.1265406466830551</v>
+      </c>
+      <c r="H72">
+        <v>-0.01107084354006531</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2397791480775151</v>
+        <v>0.2724032355231617</v>
       </c>
       <c r="C73">
-        <v>0.152388859050205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08327079169625626</v>
+      </c>
+      <c r="D73">
+        <v>0.07207403330632914</v>
+      </c>
+      <c r="E73">
+        <v>0.1877419073371346</v>
+      </c>
+      <c r="F73">
+        <v>0.06294359143076053</v>
+      </c>
+      <c r="G73">
+        <v>-0.2174580165289668</v>
+      </c>
+      <c r="H73">
+        <v>0.583203350603506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07117586986066819</v>
+        <v>0.08855192265624712</v>
       </c>
       <c r="C74">
-        <v>0.08521555786945434</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06363403173866564</v>
+      </c>
+      <c r="D74">
+        <v>0.03661443296242942</v>
+      </c>
+      <c r="E74">
+        <v>0.008662156322557246</v>
+      </c>
+      <c r="F74">
+        <v>-0.007435895655091551</v>
+      </c>
+      <c r="G74">
+        <v>-0.01987093564464443</v>
+      </c>
+      <c r="H74">
+        <v>-0.1467855139066687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09092826473728169</v>
+        <v>0.1036790933180054</v>
       </c>
       <c r="C75">
-        <v>0.06944492821485643</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03834555899124382</v>
+      </c>
+      <c r="D75">
+        <v>0.01700914363193405</v>
+      </c>
+      <c r="E75">
+        <v>-0.001095294742628375</v>
+      </c>
+      <c r="F75">
+        <v>0.05832796722537978</v>
+      </c>
+      <c r="G75">
+        <v>-0.01318908644561378</v>
+      </c>
+      <c r="H75">
+        <v>-0.1341917732682052</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1133569706878704</v>
+        <v>0.131434517861261</v>
       </c>
       <c r="C76">
-        <v>0.1025210133218921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06750992682225769</v>
+      </c>
+      <c r="D76">
+        <v>0.05960030838646296</v>
+      </c>
+      <c r="E76">
+        <v>-0.004476387217989734</v>
+      </c>
+      <c r="F76">
+        <v>0.06426530722564415</v>
+      </c>
+      <c r="G76">
+        <v>0.01097572151326175</v>
+      </c>
+      <c r="H76">
+        <v>-0.157223614648147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1119021351588873</v>
+        <v>0.1160957934684739</v>
       </c>
       <c r="C77">
-        <v>0.05933633640880744</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.02255553641637424</v>
+      </c>
+      <c r="D77">
+        <v>0.01719392096199812</v>
+      </c>
+      <c r="E77">
+        <v>1.082323736472991e-05</v>
+      </c>
+      <c r="F77">
+        <v>0.2681167136214734</v>
+      </c>
+      <c r="G77">
+        <v>0.8629436683858789</v>
+      </c>
+      <c r="H77">
+        <v>0.20409663577929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08308981145861222</v>
+        <v>0.1051964415163219</v>
       </c>
       <c r="C78">
-        <v>0.05302136153543166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03228438194972815</v>
+      </c>
+      <c r="D78">
+        <v>0.06943210598818259</v>
+      </c>
+      <c r="E78">
+        <v>-0.06297104877754039</v>
+      </c>
+      <c r="F78">
+        <v>0.007280021666380734</v>
+      </c>
+      <c r="G78">
+        <v>0.02526176570722464</v>
+      </c>
+      <c r="H78">
+        <v>0.09299715646723787</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1309390140585354</v>
+        <v>0.1495571852441579</v>
       </c>
       <c r="C79">
-        <v>0.1072827785373707</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06481182180788844</v>
+      </c>
+      <c r="D79">
+        <v>0.02953414664802062</v>
+      </c>
+      <c r="E79">
+        <v>0.02803570004659093</v>
+      </c>
+      <c r="F79">
+        <v>0.03398796147644879</v>
+      </c>
+      <c r="G79">
+        <v>-0.008836473948094161</v>
+      </c>
+      <c r="H79">
+        <v>-0.1397320382467141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03931284449242488</v>
+        <v>0.03844785313622645</v>
       </c>
       <c r="C80">
-        <v>0.02170969108671292</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007873355450245778</v>
+      </c>
+      <c r="D80">
+        <v>0.02815232052958367</v>
+      </c>
+      <c r="E80">
+        <v>0.0004726598408474799</v>
+      </c>
+      <c r="F80">
+        <v>-0.02513778446228106</v>
+      </c>
+      <c r="G80">
+        <v>-0.03204370089051464</v>
+      </c>
+      <c r="H80">
+        <v>-0.04611980112679186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1055728290633226</v>
+        <v>0.1200396787727689</v>
       </c>
       <c r="C81">
-        <v>0.08287262252341059</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04979746645496066</v>
+      </c>
+      <c r="D81">
+        <v>0.03412940864836676</v>
+      </c>
+      <c r="E81">
+        <v>0.007083620543692824</v>
+      </c>
+      <c r="F81">
+        <v>0.03084889751640633</v>
+      </c>
+      <c r="G81">
+        <v>-0.05065606070168259</v>
+      </c>
+      <c r="H81">
+        <v>-0.1635554630570537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1129631368517004</v>
+        <v>0.1251101379678959</v>
       </c>
       <c r="C82">
-        <v>0.09552186863925592</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05930496431271506</v>
+      </c>
+      <c r="D82">
+        <v>0.03718374229856978</v>
+      </c>
+      <c r="E82">
+        <v>0.02884408636195791</v>
+      </c>
+      <c r="F82">
+        <v>0.05365838368959254</v>
+      </c>
+      <c r="G82">
+        <v>-0.03395577179813614</v>
+      </c>
+      <c r="H82">
+        <v>-0.1750415664053608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07321116728572998</v>
+        <v>0.07395871364969829</v>
       </c>
       <c r="C83">
-        <v>0.02336404321358966</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.002790127026197889</v>
+      </c>
+      <c r="D83">
+        <v>0.04396279260563236</v>
+      </c>
+      <c r="E83">
+        <v>-0.007881233488086385</v>
+      </c>
+      <c r="F83">
+        <v>0.006150057508823883</v>
+      </c>
+      <c r="G83">
+        <v>-0.07398210702001097</v>
+      </c>
+      <c r="H83">
+        <v>0.004270340667361616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02350744719295313</v>
+        <v>0.03207369845133086</v>
       </c>
       <c r="C84">
-        <v>0.02199271296732793</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01755462186820695</v>
+      </c>
+      <c r="D84">
+        <v>0.02357518569690887</v>
+      </c>
+      <c r="E84">
+        <v>-0.01256113313475108</v>
+      </c>
+      <c r="F84">
+        <v>-0.05049917040446105</v>
+      </c>
+      <c r="G84">
+        <v>-0.05541155508536897</v>
+      </c>
+      <c r="H84">
+        <v>-0.0002202880743129518</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1138986390626894</v>
+        <v>0.1187023050698214</v>
       </c>
       <c r="C85">
-        <v>0.0835022408992338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04256700737835795</v>
+      </c>
+      <c r="D85">
+        <v>0.03396623331357435</v>
+      </c>
+      <c r="E85">
+        <v>-0.004720537316612844</v>
+      </c>
+      <c r="F85">
+        <v>0.07748236963584715</v>
+      </c>
+      <c r="G85">
+        <v>-0.01109472457121419</v>
+      </c>
+      <c r="H85">
+        <v>-0.1354639514745995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04178740152715173</v>
+        <v>0.04517467402433716</v>
       </c>
       <c r="C86">
-        <v>0.02159537375847558</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.008034082318884592</v>
+      </c>
+      <c r="D86">
+        <v>0.01537947505511879</v>
+      </c>
+      <c r="E86">
+        <v>-0.04606449480960334</v>
+      </c>
+      <c r="F86">
+        <v>0.007105473424404333</v>
+      </c>
+      <c r="G86">
+        <v>-0.0156563754891704</v>
+      </c>
+      <c r="H86">
+        <v>0.004019646797115029</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1143267448704123</v>
+        <v>0.12133852937896</v>
       </c>
       <c r="C87">
-        <v>0.09071006645928642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04672010106422956</v>
+      </c>
+      <c r="D87">
+        <v>0.07080210094025563</v>
+      </c>
+      <c r="E87">
+        <v>-0.0247171336278751</v>
+      </c>
+      <c r="F87">
+        <v>0.03588924943669105</v>
+      </c>
+      <c r="G87">
+        <v>0.1031590708921175</v>
+      </c>
+      <c r="H87">
+        <v>0.02129395325606648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05186780899105487</v>
+        <v>0.05763963694310482</v>
       </c>
       <c r="C88">
-        <v>0.04242851107525601</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02472465452584472</v>
+      </c>
+      <c r="D88">
+        <v>0.0255280103322605</v>
+      </c>
+      <c r="E88">
+        <v>-0.01979536010109197</v>
+      </c>
+      <c r="F88">
+        <v>0.01141586719621345</v>
+      </c>
+      <c r="G88">
+        <v>0.01752560114835679</v>
+      </c>
+      <c r="H88">
+        <v>-0.06549177149704657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07021982572552016</v>
+        <v>0.1046416638441267</v>
       </c>
       <c r="C89">
-        <v>0.07612664552324749</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.0815962464410163</v>
+      </c>
+      <c r="D89">
+        <v>-0.3301585602967676</v>
+      </c>
+      <c r="E89">
+        <v>-0.07946746827442741</v>
+      </c>
+      <c r="F89">
+        <v>0.06008154898748441</v>
+      </c>
+      <c r="G89">
+        <v>-0.02434182712448235</v>
+      </c>
+      <c r="H89">
+        <v>-0.0103656127620864</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0629267594581036</v>
+        <v>0.08577107766554264</v>
       </c>
       <c r="C90">
-        <v>0.06818614225280453</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06850782920232767</v>
+      </c>
+      <c r="D90">
+        <v>-0.3081139140970198</v>
+      </c>
+      <c r="E90">
+        <v>-0.06672754745780728</v>
+      </c>
+      <c r="F90">
+        <v>-0.0217994703272545</v>
+      </c>
+      <c r="G90">
+        <v>-0.01572541688588843</v>
+      </c>
+      <c r="H90">
+        <v>-0.03510102339285645</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07408251550828615</v>
+        <v>0.0861624178743545</v>
       </c>
       <c r="C91">
-        <v>0.06733653986760527</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04362332926056542</v>
+      </c>
+      <c r="D91">
+        <v>0.03006978772704121</v>
+      </c>
+      <c r="E91">
+        <v>-0.006601026010783349</v>
+      </c>
+      <c r="F91">
+        <v>0.01011578941094006</v>
+      </c>
+      <c r="G91">
+        <v>-0.02509996972799717</v>
+      </c>
+      <c r="H91">
+        <v>-0.08870659431281613</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07763535952735129</v>
+        <v>0.1030034869533523</v>
       </c>
       <c r="C92">
-        <v>0.07350857336627144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.07200843874893256</v>
+      </c>
+      <c r="D92">
+        <v>-0.3313567823106495</v>
+      </c>
+      <c r="E92">
+        <v>-0.04204955147643921</v>
+      </c>
+      <c r="F92">
+        <v>0.02423790645262273</v>
+      </c>
+      <c r="G92">
+        <v>-0.003170015475142401</v>
+      </c>
+      <c r="H92">
+        <v>-0.04225972611893267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05583915204951091</v>
+        <v>0.08367898604550145</v>
       </c>
       <c r="C93">
-        <v>0.06309181250807658</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06933113705919548</v>
+      </c>
+      <c r="D93">
+        <v>-0.3012336608230991</v>
+      </c>
+      <c r="E93">
+        <v>-0.03799178312877627</v>
+      </c>
+      <c r="F93">
+        <v>0.03342780331578227</v>
+      </c>
+      <c r="G93">
+        <v>0.001765870278495932</v>
+      </c>
+      <c r="H93">
+        <v>0.009767875233091172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1214255153205457</v>
+        <v>0.126348484282672</v>
       </c>
       <c r="C94">
-        <v>0.08284330048391493</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03707538139378559</v>
+      </c>
+      <c r="D94">
+        <v>0.05940888861607664</v>
+      </c>
+      <c r="E94">
+        <v>0.03043596233187029</v>
+      </c>
+      <c r="F94">
+        <v>0.03867363964598323</v>
+      </c>
+      <c r="G94">
+        <v>-0.02791602903074487</v>
+      </c>
+      <c r="H94">
+        <v>-0.1017364615073642</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1119649243519419</v>
+        <v>0.119278529309883</v>
       </c>
       <c r="C95">
-        <v>0.06207809117175725</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02355302957725119</v>
+      </c>
+      <c r="D95">
+        <v>0.05615786411981531</v>
+      </c>
+      <c r="E95">
+        <v>0.01125400336025337</v>
+      </c>
+      <c r="F95">
+        <v>0.02812084769701496</v>
+      </c>
+      <c r="G95">
+        <v>-0.008902312491242259</v>
+      </c>
+      <c r="H95">
+        <v>-0.01894450770424795</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1963882557894696</v>
+        <v>0.2225065313593399</v>
       </c>
       <c r="C97">
-        <v>0.07723463367558693</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.0350617042070614</v>
+      </c>
+      <c r="D97">
+        <v>-0.008693389923053161</v>
+      </c>
+      <c r="E97">
+        <v>0.1568533931389071</v>
+      </c>
+      <c r="F97">
+        <v>-0.8835967657237814</v>
+      </c>
+      <c r="G97">
+        <v>0.2212544039579143</v>
+      </c>
+      <c r="H97">
+        <v>-0.02244739670874284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2306614579651398</v>
+        <v>0.2626808703158068</v>
       </c>
       <c r="C98">
-        <v>0.1319851939866395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06462181609261199</v>
+      </c>
+      <c r="D98">
+        <v>0.04975884472884274</v>
+      </c>
+      <c r="E98">
+        <v>0.1567141719735268</v>
+      </c>
+      <c r="F98">
+        <v>0.02173710879798325</v>
+      </c>
+      <c r="G98">
+        <v>-0.2900716890533763</v>
+      </c>
+      <c r="H98">
+        <v>0.1945010570011897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5889768957348405</v>
+        <v>0.364389520372626</v>
       </c>
       <c r="C99">
-        <v>-0.7975384813720879</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9184506681047685</v>
+      </c>
+      <c r="D99">
+        <v>-0.08682184675342697</v>
+      </c>
+      <c r="E99">
+        <v>-0.04699346517223046</v>
+      </c>
+      <c r="F99">
+        <v>0.04034233282559494</v>
+      </c>
+      <c r="G99">
+        <v>-0.01452116509385723</v>
+      </c>
+      <c r="H99">
+        <v>-0.04092555837465325</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03458245007194522</v>
+        <v>0.04326864837762631</v>
       </c>
       <c r="C101">
-        <v>0.03206823983698732</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02401514705098769</v>
+      </c>
+      <c r="D101">
+        <v>0.01080528912206486</v>
+      </c>
+      <c r="E101">
+        <v>-0.03462052172066927</v>
+      </c>
+      <c r="F101">
+        <v>0.01044137263637479</v>
+      </c>
+      <c r="G101">
+        <v>-0.01524769050782494</v>
+      </c>
+      <c r="H101">
+        <v>-0.07967117580666865</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
